--- a/dataRepository/invoices.xlsx
+++ b/dataRepository/invoices.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielCrickmore\Dropbox (SpaceTec Partners)\_STP-BE Bookkeeping\10 - Ad-hoc finance issues\2023-08 Invoice OUT Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seddikhouimli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15032564-DC65-4F11-883E-A5551D6F7CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5700078-587F-E74B-B434-027FD386F06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EDCE074-F39B-4806-A7E3-4222BFECFEDA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4EDCE074-F39B-4806-A7E3-4222BFECFEDA}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceOut" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvoiceOut!$A$1:$K$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvoiceOut!$A$1:$K$337</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">InvoiceOut!#REF!</definedName>
     <definedName name="Project">#REF!</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="875">
   <si>
     <t>Entity</t>
   </si>
@@ -2173,18 +2173,12 @@
     <t>Interim payment related to the contract with reference GSA/OP/09/16/L2-SC4 in connection with the “Provision of technical and market analysis of the EGNSS role in surveying markets which were previously niche for GSA (construction, mining and marine surveying)”</t>
   </si>
   <si>
-    <t>GSA-L2-SC4</t>
-  </si>
-  <si>
     <t>E002/2020</t>
   </si>
   <si>
     <t>Quarterly invoice related to the contract with reference GSA/OP/09/16/L2-SC5 in connection with the provision of on-site support for the Professional GNSS market segments</t>
   </si>
   <si>
-    <t>GSA-L2-SC5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grant note </t>
   </si>
   <si>
@@ -2201,9 +2195,6 @@
   </si>
   <si>
     <t>GSA/OP/09/16-L4-SC3 MyGalileoApp</t>
-  </si>
-  <si>
-    <t>GSA-L4-SC3</t>
   </si>
   <si>
     <t>E004/2020</t>
@@ -2310,9 +2301,6 @@
     <t>Swiss Economic Impact Analysis</t>
   </si>
   <si>
-    <t>BGRB - Project</t>
-  </si>
-  <si>
     <t>E017/2020</t>
   </si>
   <si>
@@ -2416,9 +2404,6 @@
     <t>Midterm payment for Specific Contract N8 Implementation Framework contract GSA/OP/09/16/Lot2</t>
   </si>
   <si>
-    <t>MKD-L2-SC8 EGNSS4CAP 2</t>
-  </si>
-  <si>
     <t>E012/2021</t>
   </si>
   <si>
@@ -2437,9 +2422,6 @@
     <t>E014/2021</t>
   </si>
   <si>
-    <t>ECO-L3-SC2 CASSINI Hackathons</t>
-  </si>
-  <si>
     <t>E015/2021</t>
   </si>
   <si>
@@ -2461,9 +2443,6 @@
     <t>SG Procurement Services GmbH Bosch</t>
   </si>
   <si>
-    <t xml:space="preserve"> Robert Bosch "Space 4.0" Bosch</t>
-  </si>
-  <si>
     <t>E018/2021</t>
   </si>
   <si>
@@ -2471,9 +2450,6 @@
   </si>
   <si>
     <t>Schlussrechnung Code4Green</t>
-  </si>
-  <si>
-    <t>C4G BMU</t>
   </si>
   <si>
     <t>E019/2021</t>
@@ -2522,9 +2498,6 @@
     <t xml:space="preserve">Final payment for Specific Contract No 8 implementing Framework contract GSA/OP/09/16/Lot 2 </t>
   </si>
   <si>
-    <t>MKD-L2-SC8 EGNSS4CAP</t>
-  </si>
-  <si>
     <t>E025/2021</t>
   </si>
   <si>
@@ -2552,9 +2525,6 @@
     <t>223.268,40 excl VAT</t>
   </si>
   <si>
-    <t>GNSS.ASIA.4</t>
-  </si>
-  <si>
     <t>E030/2021</t>
   </si>
   <si>
@@ -2582,12 +2552,6 @@
     <t>E034/2021</t>
   </si>
   <si>
-    <t>Ad-hoc support in preparing executive presentations and company value proposition</t>
-  </si>
-  <si>
-    <t>SpaceOpal</t>
-  </si>
-  <si>
     <t>with VAT</t>
   </si>
   <si>
@@ -2612,9 +2576,6 @@
     <t xml:space="preserve"> Interim Payment</t>
   </si>
   <si>
-    <t xml:space="preserve"> ECO-L3-SC2</t>
-  </si>
-  <si>
     <t>E002/2022</t>
   </si>
   <si>
@@ -2745,6 +2706,33 @@
   </si>
   <si>
     <t>E036</t>
+  </si>
+  <si>
+    <t>Space 4.0</t>
+  </si>
+  <si>
+    <t>Swiss EIA</t>
+  </si>
+  <si>
+    <t>C4G</t>
+  </si>
+  <si>
+    <t>FRAUN</t>
+  </si>
+  <si>
+    <t>GNSS.ASIA-4</t>
+  </si>
+  <si>
+    <t>MKD-L2-SC5</t>
+  </si>
+  <si>
+    <t>MKD-L4-SC3</t>
+  </si>
+  <si>
+    <t>MKD-L2-SC8</t>
+  </si>
+  <si>
+    <t>ORORA</t>
   </si>
 </sst>
 </file>
@@ -2752,14 +2740,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;€ &quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$SAR]_-;\-* #,##0.00\ [$SAR]_-;_-* &quot;-&quot;??\ [$SAR]_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$SAR]_-;\-* #,##0.00\ [$SAR]_-;_-* &quot;-&quot;??\ [$SAR]_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2895,7 +2883,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -2961,7 +2949,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2981,7 +2969,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -3003,14 +2991,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3368,28 +3356,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1C4AA-0F7E-4149-B3F3-8ADBC921EA06}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N338"/>
+  <dimension ref="A1:N337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331:XFD331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="110.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="110.5" style="7" customWidth="1"/>
     <col min="7" max="8" width="21" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="20" style="10" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="7" customWidth="1"/>
     <col min="12" max="12" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="13" style="7"/>
   </cols>
@@ -3430,7 +3418,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3462,7 +3450,7 @@
         <v>11165</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3482,7 @@
         <v>22035</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3526,7 +3514,7 @@
         <v>196425</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +3546,7 @@
         <v>11995.31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3578,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -3622,7 +3610,7 @@
         <v>54938</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3689,7 +3677,7 @@
         <v>1643.39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3719,7 +3707,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3751,7 +3739,7 @@
         <v>63140</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3783,7 +3771,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -3853,7 +3841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -3885,7 +3873,7 @@
         <v>47018.89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3920,7 +3908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -3952,7 +3940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -3984,7 +3972,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4004,7 @@
         <v>62746</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -4086,7 +4074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -4121,7 +4109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -4188,7 +4176,7 @@
         <v>141250</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -4255,7 +4243,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -4287,7 +4275,7 @@
         <v>16940</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -4319,7 +4307,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -4354,7 +4342,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -4424,7 +4412,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -4459,7 +4447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4479,7 @@
         <v>23900</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4511,7 @@
         <v>179766.75999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
@@ -4555,7 +4543,7 @@
         <v>104757.55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -4590,7 +4578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
@@ -4622,7 +4610,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
@@ -4654,7 +4642,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
@@ -4686,7 +4674,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -4721,7 +4709,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -4753,7 +4741,7 @@
         <v>74850</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
@@ -4785,7 +4773,7 @@
         <v>21619.95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -4818,7 +4806,7 @@
       </c>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +4839,7 @@
       </c>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -4883,7 +4871,7 @@
         <v>12920</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
@@ -4916,7 +4904,7 @@
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
@@ -4949,7 +4937,7 @@
       </c>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
@@ -4982,7 +4970,7 @@
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
@@ -5015,7 +5003,7 @@
       </c>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
@@ -5047,7 +5035,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
@@ -5114,7 +5102,7 @@
         <v>12240</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
@@ -5146,7 +5134,7 @@
         <v>137229.9</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
@@ -5178,7 +5166,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5198,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
@@ -5242,7 +5230,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +5262,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5323,7 @@
         <v>37657.5</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
@@ -5367,7 +5355,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -5403,7 +5391,7 @@
       </c>
       <c r="L61" s="20"/>
     </row>
-    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -5438,7 +5426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5470,7 +5458,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
@@ -5502,7 +5490,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>11</v>
       </c>
@@ -5534,7 +5522,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5554,7 @@
         <v>448905</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
@@ -5599,7 +5587,7 @@
       </c>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +5619,7 @@
         <v>8753.64</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>11</v>
       </c>
@@ -5663,7 +5651,7 @@
         <v>99800</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>11</v>
       </c>
@@ -5698,7 +5686,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
@@ -5733,7 +5721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5756,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
@@ -5803,7 +5791,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
@@ -5835,7 +5823,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
@@ -5863,7 +5851,7 @@
       </c>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
@@ -5898,7 +5886,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5918,7 @@
         <v>17704.689999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
@@ -5965,7 +5953,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
@@ -5997,7 +5985,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
@@ -6029,7 +6017,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>11</v>
       </c>
@@ -6059,7 +6047,7 @@
       </c>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6077,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
@@ -6121,7 +6109,7 @@
         <v>26242.3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>11</v>
       </c>
@@ -6156,7 +6144,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>11</v>
       </c>
@@ -6189,7 +6177,7 @@
       </c>
       <c r="K85" s="50"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>11</v>
       </c>
@@ -6221,7 +6209,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
@@ -6253,7 +6241,7 @@
         <v>44555</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>11</v>
       </c>
@@ -6285,7 +6273,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
@@ -6317,7 +6305,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
@@ -6355,7 +6343,7 @@
         <v>42843.690000000061</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>11</v>
       </c>
@@ -6388,7 +6376,7 @@
       </c>
       <c r="L91" s="21"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6406,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>11</v>
       </c>
@@ -6448,7 +6436,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
@@ -6480,7 +6468,7 @@
         <v>8840</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6500,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>11</v>
       </c>
@@ -6544,7 +6532,7 @@
         <v>71711</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
@@ -6577,7 +6565,7 @@
       </c>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6597,7 @@
         <v>76814</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>11</v>
       </c>
@@ -6641,7 +6629,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>11</v>
       </c>
@@ -6673,7 +6661,7 @@
         <v>33212</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>11</v>
       </c>
@@ -6705,7 +6693,7 @@
         <v>16320</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>11</v>
       </c>
@@ -6740,7 +6728,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>11</v>
       </c>
@@ -6775,7 +6763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>11</v>
       </c>
@@ -6810,7 +6798,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>11</v>
       </c>
@@ -6842,7 +6830,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>11</v>
       </c>
@@ -6874,7 +6862,7 @@
         <v>17070</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>11</v>
       </c>
@@ -6906,7 +6894,7 @@
         <v>17070</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>11</v>
       </c>
@@ -6938,7 +6926,7 @@
         <v>17070</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>11</v>
       </c>
@@ -6976,7 +6964,7 @@
         <v>8830.2699999999895</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>11</v>
       </c>
@@ -7008,7 +6996,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>11</v>
       </c>
@@ -7037,7 +7025,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>11</v>
       </c>
@@ -7069,7 +7057,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>11</v>
       </c>
@@ -7101,7 +7089,7 @@
         <v>156100</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>11</v>
       </c>
@@ -7133,7 +7121,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>11</v>
       </c>
@@ -7165,7 +7153,7 @@
         <v>37657.5</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>11</v>
       </c>
@@ -7197,7 +7185,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>11</v>
       </c>
@@ -7232,7 +7220,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>11</v>
       </c>
@@ -7267,7 +7255,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>11</v>
       </c>
@@ -7296,7 +7284,7 @@
         <v>-31788.59</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>11</v>
       </c>
@@ -7325,7 +7313,7 @@
         <v>-58951.34</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7348,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>11</v>
       </c>
@@ -7395,7 +7383,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>11</v>
       </c>
@@ -7428,7 +7416,7 @@
       </c>
       <c r="L123" s="33"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>11</v>
       </c>
@@ -7461,7 +7449,7 @@
       </c>
       <c r="L124" s="33"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>11</v>
       </c>
@@ -7496,7 +7484,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>11</v>
       </c>
@@ -7531,7 +7519,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>11</v>
       </c>
@@ -7563,7 +7551,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>11</v>
       </c>
@@ -7595,7 +7583,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>11</v>
       </c>
@@ -7627,7 +7615,7 @@
         <v>69759</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>11</v>
       </c>
@@ -7659,7 +7647,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>11</v>
       </c>
@@ -7689,7 +7677,7 @@
       </c>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>11</v>
       </c>
@@ -7724,7 +7712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>11</v>
       </c>
@@ -7756,7 +7744,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>11</v>
       </c>
@@ -7788,7 +7776,7 @@
         <v>1401.5346040929628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>11</v>
       </c>
@@ -7820,7 +7808,7 @@
         <v>39362.325395907035</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>11</v>
       </c>
@@ -7852,7 +7840,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>11</v>
       </c>
@@ -7884,7 +7872,7 @@
         <v>79665</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>11</v>
       </c>
@@ -7919,7 +7907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>11</v>
       </c>
@@ -7949,7 +7937,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>11</v>
       </c>
@@ -7981,7 +7969,7 @@
         <v>65278</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>11</v>
       </c>
@@ -8013,7 +8001,7 @@
         <v>125900</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>11</v>
       </c>
@@ -8051,7 +8039,7 @@
         <v>4133.3500000000058</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>11</v>
       </c>
@@ -8081,7 +8069,7 @@
       </c>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8104,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>11</v>
       </c>
@@ -8151,7 +8139,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>11</v>
       </c>
@@ -8186,7 +8174,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>11</v>
       </c>
@@ -8221,7 +8209,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>11</v>
       </c>
@@ -8253,7 +8241,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>11</v>
       </c>
@@ -8285,7 +8273,7 @@
         <v>68505.759999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>11</v>
       </c>
@@ -8320,7 +8308,7 @@
         <v>84877.47</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>11</v>
       </c>
@@ -8355,7 +8343,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>11</v>
       </c>
@@ -8387,7 +8375,7 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8407,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>11</v>
       </c>
@@ -8451,7 +8439,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>11</v>
       </c>
@@ -8483,7 +8471,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>11</v>
       </c>
@@ -8515,7 +8503,7 @@
         <v>13552.4</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>11</v>
       </c>
@@ -8550,7 +8538,7 @@
         <v>84877.47</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8573,7 @@
         <v>84877.47</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>11</v>
       </c>
@@ -8617,7 +8605,7 @@
         <v>52624</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>11</v>
       </c>
@@ -8649,7 +8637,7 @@
         <v>132583.07999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>11</v>
       </c>
@@ -8681,7 +8669,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>11</v>
       </c>
@@ -8713,7 +8701,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>11</v>
       </c>
@@ -8745,7 +8733,7 @@
         <v>136861.22</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>11</v>
       </c>
@@ -8777,7 +8765,7 @@
         <v>54532.02</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>11</v>
       </c>
@@ -8809,7 +8797,7 @@
         <v>79074</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>11</v>
       </c>
@@ -8844,7 +8832,7 @@
         <v>18266.830000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>11</v>
       </c>
@@ -8879,7 +8867,7 @@
         <v>18266.830000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>11</v>
       </c>
@@ -8911,7 +8899,7 @@
         <v>186180</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +8931,7 @@
         <v>22578.39</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>11</v>
       </c>
@@ -8975,7 +8963,7 @@
         <v>50210</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>11</v>
       </c>
@@ -9007,7 +8995,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>11</v>
       </c>
@@ -9039,7 +9027,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>11</v>
       </c>
@@ -9071,7 +9059,7 @@
         <v>54291</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>11</v>
       </c>
@@ -9103,7 +9091,7 @@
         <v>23908</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>11</v>
       </c>
@@ -9135,7 +9123,7 @@
         <v>290470</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>11</v>
       </c>
@@ -9170,7 +9158,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>11</v>
       </c>
@@ -9203,7 +9191,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>11</v>
       </c>
@@ -9235,7 +9223,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>11</v>
       </c>
@@ -9267,7 +9255,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>11</v>
       </c>
@@ -9299,7 +9287,7 @@
         <v>12920</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
@@ -9331,7 +9319,7 @@
         <v>178096.09</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>11</v>
       </c>
@@ -9363,7 +9351,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>11</v>
       </c>
@@ -9395,7 +9383,7 @@
         <v>28574.87</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>11</v>
       </c>
@@ -9427,7 +9415,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>11</v>
       </c>
@@ -9459,7 +9447,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>11</v>
       </c>
@@ -9491,7 +9479,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>11</v>
       </c>
@@ -9523,7 +9511,7 @@
         <v>56721.599999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>11</v>
       </c>
@@ -9553,7 +9541,7 @@
       </c>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>11</v>
       </c>
@@ -9585,7 +9573,7 @@
         <v>52600</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>11</v>
       </c>
@@ -9617,7 +9605,7 @@
         <v>88244.77</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9640,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>11</v>
       </c>
@@ -9684,7 +9672,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>11</v>
       </c>
@@ -9716,7 +9704,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>11</v>
       </c>
@@ -9748,7 +9736,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>11</v>
       </c>
@@ -9780,7 +9768,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>11</v>
       </c>
@@ -9812,7 +9800,7 @@
         <v>51858.67</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
@@ -9844,7 +9832,7 @@
         <v>120924.37</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>11</v>
       </c>
@@ -9876,7 +9864,7 @@
         <v>80500</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>11</v>
       </c>
@@ -9908,7 +9896,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>11</v>
       </c>
@@ -9940,7 +9928,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>11</v>
       </c>
@@ -9972,7 +9960,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>11</v>
       </c>
@@ -10004,7 +9992,7 @@
         <v>10860</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10024,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>11</v>
       </c>
@@ -10068,7 +10056,7 @@
         <v>448905</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>11</v>
       </c>
@@ -10100,7 +10088,7 @@
         <v>9520</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>11</v>
       </c>
@@ -10132,7 +10120,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>11</v>
       </c>
@@ -10164,7 +10152,7 @@
         <v>15640</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>11</v>
       </c>
@@ -10196,7 +10184,7 @@
         <v>91800</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>11</v>
       </c>
@@ -10228,7 +10216,7 @@
         <v>14823.5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>11</v>
       </c>
@@ -10260,7 +10248,7 @@
         <v>21720</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>11</v>
       </c>
@@ -10292,7 +10280,7 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>11</v>
       </c>
@@ -10324,7 +10312,7 @@
         <v>82511</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
@@ -10356,7 +10344,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>11</v>
       </c>
@@ -10391,7 +10379,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>11</v>
       </c>
@@ -10423,7 +10411,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>11</v>
       </c>
@@ -10455,7 +10443,7 @@
         <v>10540</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>11</v>
       </c>
@@ -10487,7 +10475,7 @@
         <v>30938.75</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>11</v>
       </c>
@@ -10519,7 +10507,7 @@
         <v>108246.15</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>11</v>
       </c>
@@ -10551,7 +10539,7 @@
         <v>54291</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>11</v>
       </c>
@@ -10583,7 +10571,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>11</v>
       </c>
@@ -10613,7 +10601,7 @@
       </c>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>11</v>
       </c>
@@ -10640,7 +10628,7 @@
       </c>
       <c r="J222" s="7"/>
     </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>11</v>
       </c>
@@ -10672,7 +10660,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>11</v>
       </c>
@@ -10704,7 +10692,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>11</v>
       </c>
@@ -10736,7 +10724,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>11</v>
       </c>
@@ -10763,7 +10751,7 @@
       </c>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>11</v>
       </c>
@@ -10790,7 +10778,7 @@
       </c>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>11</v>
       </c>
@@ -10817,7 +10805,7 @@
       </c>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +10832,7 @@
       </c>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>11</v>
       </c>
@@ -10871,7 +10859,7 @@
       </c>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>11</v>
       </c>
@@ -10898,7 +10886,7 @@
       </c>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>11</v>
       </c>
@@ -10925,7 +10913,7 @@
       </c>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>11</v>
       </c>
@@ -10952,7 +10940,7 @@
       </c>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>11</v>
       </c>
@@ -10979,7 +10967,7 @@
       </c>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>11</v>
       </c>
@@ -11006,7 +10994,7 @@
       </c>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>11</v>
       </c>
@@ -11033,7 +11021,7 @@
       </c>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>11</v>
       </c>
@@ -11060,7 +11048,7 @@
       </c>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>11</v>
       </c>
@@ -11087,7 +11075,7 @@
       </c>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>11</v>
       </c>
@@ -11114,7 +11102,7 @@
       </c>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>11</v>
       </c>
@@ -11141,7 +11129,7 @@
       </c>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>11</v>
       </c>
@@ -11168,7 +11156,7 @@
       </c>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>11</v>
       </c>
@@ -11195,7 +11183,7 @@
       </c>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>618</v>
       </c>
@@ -11227,7 +11215,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>618</v>
       </c>
@@ -11259,7 +11247,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>618</v>
       </c>
@@ -11287,7 +11275,7 @@
       </c>
       <c r="J245" s="43"/>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>618</v>
       </c>
@@ -11319,7 +11307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>618</v>
       </c>
@@ -11351,7 +11339,7 @@
         <v>77800</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>618</v>
       </c>
@@ -11383,7 +11371,7 @@
         <v>359985</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>618</v>
       </c>
@@ -11411,7 +11399,7 @@
       </c>
       <c r="J249" s="43"/>
     </row>
-    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>618</v>
       </c>
@@ -11443,7 +11431,7 @@
         <v>6760.13</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>618</v>
       </c>
@@ -11475,7 +11463,7 @@
         <v>4596.4799999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>618</v>
       </c>
@@ -11507,7 +11495,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>618</v>
       </c>
@@ -11535,7 +11523,7 @@
       </c>
       <c r="J253"/>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>618</v>
       </c>
@@ -11567,7 +11555,7 @@
         <v>144585</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>618</v>
       </c>
@@ -11599,7 +11587,7 @@
         <v>35939.035300000025</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>618</v>
       </c>
@@ -11631,7 +11619,7 @@
         <v>31548.178169062347</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>618</v>
       </c>
@@ -11663,7 +11651,7 @@
         <v>79623.332727272733</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>618</v>
       </c>
@@ -11695,7 +11683,7 @@
         <v>125550.90240000001</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>618</v>
       </c>
@@ -11727,7 +11715,7 @@
         <v>192899</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>618</v>
       </c>
@@ -11759,7 +11747,7 @@
         <v>24993.759999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>618</v>
       </c>
@@ -11791,7 +11779,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>618</v>
       </c>
@@ -11823,7 +11811,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>618</v>
       </c>
@@ -11855,7 +11843,7 @@
         <v>126520.8</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>618</v>
       </c>
@@ -11887,7 +11875,7 @@
         <v>295.99</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>618</v>
       </c>
@@ -11919,7 +11907,7 @@
         <v>160929.22</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>618</v>
       </c>
@@ -11951,7 +11939,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>618</v>
       </c>
@@ -11983,7 +11971,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>618</v>
       </c>
@@ -12015,7 +12003,7 @@
         <v>283101</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>618</v>
       </c>
@@ -12047,7 +12035,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>618</v>
       </c>
@@ -12078,7 +12066,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>618</v>
       </c>
@@ -12110,7 +12098,7 @@
         <v>359985</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>618</v>
       </c>
@@ -12138,7 +12126,7 @@
       </c>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>618</v>
       </c>
@@ -12166,7 +12154,7 @@
       </c>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>686</v>
       </c>
@@ -12186,7 +12174,7 @@
         <v>688</v>
       </c>
       <c r="G274" s="47" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="H274" s="9">
         <v>50000</v>
@@ -12195,7 +12183,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>686</v>
       </c>
@@ -12212,10 +12200,10 @@
         <v>116</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G275" s="47" t="s">
-        <v>692</v>
+        <v>871</v>
       </c>
       <c r="H275" s="9">
         <v>39940</v>
@@ -12224,12 +12212,12 @@
         <v>39940</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C276" s="8">
         <v>44596</v>
@@ -12241,10 +12229,10 @@
         <v>630</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G276" s="47" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H276" s="9">
         <v>153875</v>
@@ -12253,7 +12241,7 @@
         <v>153875</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>686</v>
       </c>
@@ -12267,13 +12255,13 @@
         <v>43907</v>
       </c>
       <c r="E277" s="47" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G277" s="47" t="s">
-        <v>699</v>
+        <v>872</v>
       </c>
       <c r="H277" s="9">
         <v>83004.42</v>
@@ -12282,7 +12270,7 @@
         <v>83004.42</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>686</v>
       </c>
@@ -12299,10 +12287,10 @@
         <v>116</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G278" s="47" t="s">
-        <v>692</v>
+        <v>871</v>
       </c>
       <c r="H278" s="9">
         <v>39820</v>
@@ -12311,7 +12299,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>686</v>
       </c>
@@ -12325,13 +12313,13 @@
         <v>43965</v>
       </c>
       <c r="E279" s="47" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G279" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H279" s="9">
         <v>4165</v>
@@ -12340,7 +12328,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>686</v>
       </c>
@@ -12357,10 +12345,10 @@
         <v>13</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G280" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H280" s="9">
         <v>7500</v>
@@ -12369,7 +12357,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>686</v>
       </c>
@@ -12383,13 +12371,13 @@
         <v>44032</v>
       </c>
       <c r="E281" s="47" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G281" s="47" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H281" s="9">
         <v>52360</v>
@@ -12398,7 +12386,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>686</v>
       </c>
@@ -12412,13 +12400,13 @@
         <v>44006</v>
       </c>
       <c r="E282" s="47" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G282" s="47" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H282" s="9">
         <v>151693</v>
@@ -12427,7 +12415,7 @@
         <v>151693</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>686</v>
       </c>
@@ -12444,10 +12432,10 @@
         <v>116</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G283" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H283" s="9">
         <v>35388</v>
@@ -12456,7 +12444,7 @@
         <v>35388</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>686</v>
       </c>
@@ -12473,10 +12461,10 @@
         <v>116</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G284" s="47" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H284" s="9">
         <v>50000</v>
@@ -12485,7 +12473,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>686</v>
       </c>
@@ -12499,13 +12487,13 @@
         <v>44028</v>
       </c>
       <c r="E285" s="14" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G285" s="47" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H285" s="9">
         <v>86804.47</v>
@@ -12514,7 +12502,7 @@
         <v>86804.47</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>686</v>
       </c>
@@ -12531,10 +12519,10 @@
         <v>116</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G286" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H286" s="9">
         <v>35898</v>
@@ -12543,7 +12531,7 @@
         <v>35898</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>686</v>
       </c>
@@ -12557,13 +12545,13 @@
         <v>44071</v>
       </c>
       <c r="E287" s="47" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F287" s="48" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G287" s="47" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H287" s="9">
         <v>108127.09</v>
@@ -12572,7 +12560,7 @@
         <v>108127.09</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>686</v>
       </c>
@@ -12589,7 +12577,7 @@
         <v>623</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>122</v>
@@ -12601,7 +12589,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>686</v>
       </c>
@@ -12618,10 +12606,10 @@
         <v>116</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G289" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H289" s="9">
         <v>35898</v>
@@ -12630,7 +12618,7 @@
         <v>35898</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>686</v>
       </c>
@@ -12647,10 +12635,10 @@
         <v>314</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G290" s="47" t="s">
-        <v>734</v>
+        <v>867</v>
       </c>
       <c r="H290" s="9">
         <v>93437.49</v>
@@ -12659,7 +12647,7 @@
         <v>93437.49</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>686</v>
       </c>
@@ -12673,10 +12661,10 @@
         <v>116</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G291" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H291" s="9">
         <v>44540</v>
@@ -12685,10 +12673,10 @@
         <v>44540</v>
       </c>
       <c r="K291" s="8" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>686</v>
       </c>
@@ -12705,10 +12693,10 @@
         <v>116</v>
       </c>
       <c r="F292" s="13" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G292" s="47" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H292" s="9">
         <v>30900</v>
@@ -12717,7 +12705,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>686</v>
       </c>
@@ -12734,7 +12722,7 @@
         <v>623</v>
       </c>
       <c r="F293" s="13" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G293" s="7" t="s">
         <v>122</v>
@@ -12746,7 +12734,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>686</v>
       </c>
@@ -12763,7 +12751,7 @@
         <v>623</v>
       </c>
       <c r="F294" s="13" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G294" s="7" t="s">
         <v>122</v>
@@ -12775,12 +12763,12 @@
         <v>108627.3</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C295" s="8">
         <v>44188</v>
@@ -12792,7 +12780,7 @@
         <v>623</v>
       </c>
       <c r="F295" s="13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G295" s="7" t="s">
         <v>122</v>
@@ -12804,12 +12792,12 @@
         <v>27930.26</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C296" s="8">
         <v>44188</v>
@@ -12821,7 +12809,7 @@
         <v>623</v>
       </c>
       <c r="F296" s="13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G296" s="7" t="s">
         <v>122</v>
@@ -12833,7 +12821,7 @@
         <v>27698.240000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>686</v>
       </c>
@@ -12847,10 +12835,10 @@
         <v>116</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G297" s="47" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H297" s="9">
         <v>-1000</v>
@@ -12859,10 +12847,10 @@
         <v>-1000</v>
       </c>
       <c r="K297" s="8" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>686</v>
       </c>
@@ -12876,10 +12864,10 @@
         <v>116</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G298" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H298" s="9">
         <v>47864</v>
@@ -12888,10 +12876,10 @@
         <v>47864</v>
       </c>
       <c r="K298" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>686</v>
       </c>
@@ -12905,7 +12893,7 @@
         <v>116</v>
       </c>
       <c r="G299" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H299" s="9">
         <v>-44540</v>
@@ -12914,10 +12902,10 @@
         <v>-44540</v>
       </c>
       <c r="K299" s="8" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>686</v>
       </c>
@@ -12934,10 +12922,10 @@
         <v>116</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G300" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H300" s="9">
         <v>44540</v>
@@ -12946,7 +12934,7 @@
         <v>44540</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>686</v>
       </c>
@@ -12960,10 +12948,10 @@
         <v>116</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G301" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H301" s="9">
         <v>47864</v>
@@ -12972,10 +12960,10 @@
         <v>47864</v>
       </c>
       <c r="K301" s="8" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>686</v>
       </c>
@@ -12992,10 +12980,10 @@
         <v>116</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G302" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H302" s="9">
         <v>39544</v>
@@ -13004,7 +12992,7 @@
         <v>39544</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>686</v>
       </c>
@@ -13018,13 +13006,13 @@
         <v>44266</v>
       </c>
       <c r="E303" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G303" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H303" s="9">
         <v>4165</v>
@@ -13033,7 +13021,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>686</v>
       </c>
@@ -13050,10 +13038,10 @@
         <v>13</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G304" s="47" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H304" s="9">
         <v>7500</v>
@@ -13062,7 +13050,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>686</v>
       </c>
@@ -13076,13 +13064,13 @@
         <v>44280</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F305" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G305" s="47" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H305" s="9">
         <v>35031.410000000003</v>
@@ -13091,7 +13079,7 @@
         <v>35031.410000000003</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>686</v>
       </c>
@@ -13105,13 +13093,13 @@
         <v>44271</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G306" s="47" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="H306" s="9">
         <v>15053.5</v>
@@ -13120,7 +13108,7 @@
         <v>15053.5</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>686</v>
       </c>
@@ -13137,10 +13125,10 @@
         <v>116</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G307" s="47" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="H307" s="9">
         <v>60900</v>
@@ -13149,7 +13137,7 @@
         <v>60900</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>686</v>
       </c>
@@ -13166,7 +13154,7 @@
         <v>623</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G308" s="7" t="s">
         <v>122</v>
@@ -13178,10 +13166,10 @@
         <v>1212.1300000000001</v>
       </c>
       <c r="K308" s="20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>686</v>
       </c>
@@ -13198,7 +13186,7 @@
         <v>623</v>
       </c>
       <c r="F309" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G309" s="7" t="s">
         <v>122</v>
@@ -13210,7 +13198,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>686</v>
       </c>
@@ -13230,7 +13218,7 @@
         <v>308</v>
       </c>
       <c r="G310" s="47" t="s">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="H310" s="9">
         <v>179992.5</v>
@@ -13239,7 +13227,7 @@
         <v>179992.5</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>686</v>
       </c>
@@ -13256,7 +13244,7 @@
         <v>630</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G311" s="47" t="s">
         <v>666</v>
@@ -13268,7 +13256,7 @@
         <v>435395.4</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>686</v>
       </c>
@@ -13285,10 +13273,10 @@
         <v>116</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G312" s="47" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H312" s="9">
         <v>34970</v>
@@ -13297,7 +13285,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>686</v>
       </c>
@@ -13311,13 +13299,13 @@
         <v>44320</v>
       </c>
       <c r="E313" s="14" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F313" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G313" s="47" t="s">
-        <v>784</v>
+        <v>866</v>
       </c>
       <c r="H313" s="9">
         <v>28976.5</v>
@@ -13326,7 +13314,7 @@
         <v>28976.5</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>686</v>
       </c>
@@ -13337,13 +13325,13 @@
         <v>44305</v>
       </c>
       <c r="E314" s="47" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G314" s="47" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
       <c r="H314" s="9">
         <v>266356.58</v>
@@ -13352,7 +13340,7 @@
         <v>266356.58</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>686</v>
       </c>
@@ -13366,13 +13354,13 @@
         <v>44315</v>
       </c>
       <c r="E315" s="14" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G315" s="47" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H315" s="9">
         <v>9000</v>
@@ -13381,7 +13369,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>686</v>
       </c>
@@ -13398,7 +13386,7 @@
         <v>623</v>
       </c>
       <c r="F316" s="13" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G316" s="7" t="s">
         <v>122</v>
@@ -13410,7 +13398,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>686</v>
       </c>
@@ -13422,13 +13410,13 @@
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="49" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F317" s="15" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G317" s="49" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
       <c r="H317" s="16">
         <v>265744.58</v>
@@ -13437,7 +13425,7 @@
         <v>265744.58</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>686</v>
       </c>
@@ -13448,13 +13436,13 @@
         <v>44347</v>
       </c>
       <c r="E318" s="47" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F318" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="G318" s="47" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
       <c r="H318" s="9">
         <f>-H314</f>
@@ -13465,7 +13453,7 @@
         <v>-266356.58</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>686</v>
       </c>
@@ -13479,13 +13467,13 @@
         <v>44411</v>
       </c>
       <c r="E319" s="47" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F319" s="13" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G319" s="47" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="H319" s="9">
         <v>28560</v>
@@ -13494,7 +13482,7 @@
         <v>28560</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>686</v>
       </c>
@@ -13511,10 +13499,10 @@
         <v>116</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="G320" s="47" t="s">
-        <v>804</v>
+        <v>873</v>
       </c>
       <c r="H320" s="16">
         <v>138450</v>
@@ -13523,7 +13511,7 @@
         <v>138450</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>686</v>
       </c>
@@ -13537,13 +13525,13 @@
         <v>44418</v>
       </c>
       <c r="E321" s="47" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G321" s="47" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H321" s="9">
         <v>9000</v>
@@ -13552,7 +13540,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>686</v>
       </c>
@@ -13569,10 +13557,10 @@
         <v>116</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G322" s="47" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H322" s="9">
         <v>34970</v>
@@ -13581,7 +13569,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>686</v>
       </c>
@@ -13598,7 +13586,7 @@
         <v>21</v>
       </c>
       <c r="F323" s="13" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G323" s="47" t="s">
         <v>648</v>
@@ -13610,10 +13598,10 @@
         <v>433633.49</v>
       </c>
       <c r="K323" s="7" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>686</v>
       </c>
@@ -13627,7 +13615,7 @@
         <v>623</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="G324" s="7" t="s">
         <v>122</v>
@@ -13639,7 +13627,7 @@
         <v>-35500</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>686</v>
       </c>
@@ -13653,13 +13641,13 @@
         <v>44461</v>
       </c>
       <c r="E325" s="47" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F325" s="15" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G325" s="47" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
       <c r="H325" s="9">
         <v>265689.40000000002</v>
@@ -13668,10 +13656,10 @@
         <v>265689.40000000002</v>
       </c>
       <c r="K325" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>686</v>
       </c>
@@ -13691,7 +13679,7 @@
         <v>248</v>
       </c>
       <c r="G326" s="47" t="s">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="H326" s="9">
         <v>389287.5</v>
@@ -13700,7 +13688,7 @@
         <v>389287.5</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>686</v>
       </c>
@@ -13714,13 +13702,13 @@
         <v>44477</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G327" s="47" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H327" s="9">
         <v>35031.410000000003</v>
@@ -13729,7 +13717,7 @@
         <v>35031.410000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>686</v>
       </c>
@@ -13743,13 +13731,13 @@
         <v>44473</v>
       </c>
       <c r="E328" s="47" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F328" s="7" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G328" s="47" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H328" s="9">
         <v>6000</v>
@@ -13758,7 +13746,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>686</v>
       </c>
@@ -13769,13 +13757,13 @@
         <v>44475</v>
       </c>
       <c r="E329" s="49" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G329" s="49" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
       <c r="H329" s="9">
         <v>-265744.58</v>
@@ -13784,7 +13772,7 @@
         <v>-265744.58</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>686</v>
       </c>
@@ -13801,10 +13789,10 @@
         <v>116</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G330" s="47" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H330" s="9">
         <v>34970</v>
@@ -13813,243 +13801,217 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C331" s="8">
         <v>44503</v>
       </c>
       <c r="D331" s="8">
-        <v>44511</v>
-      </c>
-      <c r="E331" s="14" t="s">
-        <v>708</v>
+        <v>44505</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>816</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="H331" s="9">
-        <v>7318.5</v>
+        <v>8925</v>
       </c>
       <c r="I331" s="9">
-        <v>7318.5</v>
+        <v>8925</v>
       </c>
       <c r="K331" s="7" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C332" s="8">
-        <v>44503</v>
+        <v>44532</v>
       </c>
       <c r="D332" s="8">
-        <v>44505</v>
-      </c>
-      <c r="E332" s="7" t="s">
-        <v>828</v>
+        <v>44543</v>
+      </c>
+      <c r="E332" s="47" t="s">
+        <v>116</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="G332" s="7" t="s">
-        <v>828</v>
+        <v>812</v>
+      </c>
+      <c r="G332" s="47" t="s">
+        <v>775</v>
       </c>
       <c r="H332" s="9">
-        <v>8925</v>
+        <v>34970</v>
       </c>
       <c r="I332" s="9">
-        <v>8925</v>
-      </c>
-      <c r="K332" s="7" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+        <v>34970</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C333" s="8">
-        <v>44532</v>
+        <v>44578</v>
       </c>
       <c r="D333" s="8">
-        <v>44543</v>
-      </c>
-      <c r="E333" s="47" t="s">
-        <v>116</v>
+        <v>44586</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>820</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="G333" s="47" t="s">
-        <v>781</v>
+        <v>821</v>
+      </c>
+      <c r="G333" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="H333" s="9">
-        <v>34970</v>
+        <v>179992.5</v>
       </c>
       <c r="I333" s="9">
-        <v>34970</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+        <v>179992.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C334" s="8">
-        <v>44578</v>
+        <v>44599</v>
       </c>
       <c r="D334" s="8">
-        <v>44586</v>
+        <v>44620</v>
       </c>
       <c r="E334" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="F334" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="G334" s="7" t="s">
-        <v>834</v>
+        <v>757</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="G334" s="47" t="s">
+        <v>759</v>
       </c>
       <c r="H334" s="9">
-        <v>179992.5</v>
+        <v>35031.410000000003</v>
       </c>
       <c r="I334" s="9">
-        <v>179992.5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>35031.410000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>257</v>
+        <v>691</v>
       </c>
       <c r="C335" s="8">
-        <v>44599</v>
-      </c>
-      <c r="D335" s="8">
-        <v>44620</v>
-      </c>
-      <c r="E335" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="F335" s="13" t="s">
-        <v>836</v>
+        <v>44602</v>
+      </c>
+      <c r="E335" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="G335" s="47" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="H335" s="9">
-        <v>35031.410000000003</v>
+        <v>122600</v>
       </c>
       <c r="I335" s="9">
-        <v>35031.410000000003</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>122600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>693</v>
+        <v>260</v>
       </c>
       <c r="C336" s="8">
-        <v>44602</v>
+        <v>44740</v>
+      </c>
+      <c r="D336" s="8">
+        <v>44813</v>
       </c>
       <c r="E336" s="39" t="s">
         <v>630</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="G336" s="47" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="H336" s="9">
-        <v>122600</v>
+        <v>224315.39</v>
       </c>
       <c r="I336" s="9">
-        <v>122600</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>224315.39</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>686</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C337" s="8">
-        <v>44740</v>
+        <v>44798</v>
       </c>
       <c r="D337" s="8">
-        <v>44813</v>
-      </c>
-      <c r="E337" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="F337" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="G337" s="47" t="s">
-        <v>666</v>
+        <v>44830</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F337" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>829</v>
       </c>
       <c r="H337" s="9">
-        <v>224315.39</v>
+        <v>112700</v>
       </c>
       <c r="I337" s="9">
-        <v>224315.39</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C338" s="8">
-        <v>44798</v>
-      </c>
-      <c r="D338" s="8">
-        <v>44830</v>
-      </c>
-      <c r="E338" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F338" s="37" t="s">
-        <v>841</v>
-      </c>
-      <c r="G338" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="H338" s="9">
         <v>112700</v>
       </c>
-      <c r="I338" s="9">
-        <v>112700</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K338" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:K337" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="SpaceOpal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K84:K85"/>
   </mergeCells>
@@ -14072,15 +14034,15 @@
       <selection activeCell="D66" sqref="D2:D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -14093,9 +14055,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -14105,18 +14067,18 @@
         <v>2020/E002</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -14126,12 +14088,12 @@
         <v>2020/E003</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -14141,12 +14103,12 @@
         <v>2020/E004</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -14156,12 +14118,12 @@
         <v>2020/E005</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -14171,12 +14133,12 @@
         <v>2020/E006</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -14186,12 +14148,12 @@
         <v>2020/E007</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -14201,12 +14163,12 @@
         <v>2020/E008</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -14216,12 +14178,12 @@
         <v>2020/E009</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -14231,12 +14193,12 @@
         <v>2020/E010</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -14246,12 +14208,12 @@
         <v>2020/E011</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -14261,12 +14223,12 @@
         <v>2020/E012</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -14276,12 +14238,12 @@
         <v>2020/E013</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -14291,12 +14253,12 @@
         <v>2020/E014</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -14306,12 +14268,12 @@
         <v>2020/E015</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -14321,12 +14283,12 @@
         <v>2020/E016</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -14336,12 +14298,12 @@
         <v>2020/E017</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -14351,12 +14313,12 @@
         <v>2020/E018</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -14366,12 +14328,12 @@
         <v>2020/E019</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -14381,24 +14343,24 @@
         <v>2020/E020</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -14408,12 +14370,12 @@
         <v>2021/E001</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -14424,9 +14386,9 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -14437,9 +14399,9 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -14449,12 +14411,12 @@
         <v>2021/E004</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -14464,12 +14426,12 @@
         <v>2021/E005</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -14479,12 +14441,12 @@
         <v>2021/E006</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -14494,12 +14456,12 @@
         <v>2021/E007</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -14509,12 +14471,12 @@
         <v>2021/E008</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -14524,12 +14486,12 @@
         <v>2021/E009</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -14539,12 +14501,12 @@
         <v>2021/E010</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -14554,12 +14516,12 @@
         <v>2021/E011</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -14569,12 +14531,12 @@
         <v>2021/E012</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -14584,12 +14546,12 @@
         <v>2021/E013</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -14599,12 +14561,12 @@
         <v>2021/E014</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -14614,12 +14576,12 @@
         <v>2021/E015</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -14629,12 +14591,12 @@
         <v>2021/E016</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -14644,12 +14606,12 @@
         <v>2021/E017</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -14659,12 +14621,12 @@
         <v>2021/E018</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -14674,12 +14636,12 @@
         <v>2021/E019</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -14689,12 +14651,12 @@
         <v>2021/E020</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="C45">
         <v>2021</v>
@@ -14704,12 +14666,12 @@
         <v>2021/E021</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -14719,12 +14681,12 @@
         <v>2021/E022</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -14734,12 +14696,12 @@
         <v>2021/E023</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -14749,12 +14711,12 @@
         <v>2021/E024</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -14764,12 +14726,12 @@
         <v>2021/E025</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -14779,12 +14741,12 @@
         <v>2021/E026</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -14794,12 +14756,12 @@
         <v>2021/E027</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -14809,12 +14771,12 @@
         <v>2021/E028</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -14824,18 +14786,18 @@
         <v>2021/E029</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D54" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -14845,12 +14807,12 @@
         <v>2021/E030</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="C56">
         <v>2021</v>
@@ -14860,12 +14822,12 @@
         <v>2021/E031</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -14875,12 +14837,12 @@
         <v>2021/E032</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -14893,9 +14855,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -14905,12 +14867,12 @@
         <v>2021/E034</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -14920,12 +14882,12 @@
         <v>2021/E035</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -14935,12 +14897,12 @@
         <v>2021/E036</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C62">
         <v>2022</v>
@@ -14950,12 +14912,12 @@
         <v>2022/E001</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C63">
         <v>2022</v>
@@ -14965,18 +14927,18 @@
         <v>2022/E002</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D64" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C65">
         <v>2022</v>
@@ -14986,12 +14948,12 @@
         <v>2022/E003</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C66">
         <v>2022</v>
@@ -15001,32 +14963,32 @@
         <v>2022/E008</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F67" s="7" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F68" s="7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F69" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F70" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F71" s="7" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
